--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,64 +43,73 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>low</t>
@@ -109,48 +118,33 @@
     <t>anxiety</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>empty</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -160,15 +154,12 @@
     <t>oil</t>
   </si>
   <si>
-    <t>due</t>
+    <t>co</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -184,178 +175,184 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>ready</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>god</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>store</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -713,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -832,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1003,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>0.8846153846153846</v>
@@ -1032,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7945205479452054</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1153,16 +1150,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8224543080939948</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M10">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>0.8181818181818182</v>
@@ -1232,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.68</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1303,16 +1300,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -1400,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7887323943661971</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
@@ -1532,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
@@ -1582,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5769230769230769</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.576271186440678</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="M20">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5555555555555556</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.7272727272727273</v>
+        <v>0.7734375</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5368217054263565</v>
+        <v>0.525</v>
       </c>
       <c r="C22">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.725</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5185185185185185</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.723404255319149</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1824,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5167785234899329</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K24">
-        <v>0.7209302325581395</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1874,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1882,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K25">
         <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5161290322580645</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K26">
         <v>0.7083333333333334</v>
@@ -1982,13 +1979,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
         <v>19</v>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,13 +2029,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2053,16 +2050,16 @@
         <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2132,13 +2129,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4533333333333333</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2150,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2174,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2179,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4358974358974359</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2200,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2224,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2232,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.425</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2250,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.6441176470588236</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L32">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2282,13 +2279,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4181818181818182</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2300,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.6135593220338983</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2324,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2332,13 +2329,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4181818181818182</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2350,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.5983263598326359</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L34">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M34">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2374,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2382,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4102564102564102</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2400,31 +2397,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2432,13 +2429,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2450,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.58</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2474,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2482,13 +2479,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3111111111111111</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2500,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2524,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2532,13 +2529,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2727272727272727</v>
+        <v>0.2125</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2550,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2574,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2582,13 +2579,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.257936507936508</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C39">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2600,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.5652173913043478</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2624,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2632,13 +2629,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1875</v>
+        <v>0.09</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2650,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.5538461538461539</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2674,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2682,37 +2679,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1715817694369973</v>
+        <v>0.01643570737995488</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>309</v>
+        <v>3052</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.5454545454545454</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2724,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2732,37 +2729,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09666666666666666</v>
+        <v>0.01551724137931034</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>271</v>
+        <v>1142</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2774,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2782,37 +2779,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05531914893617021</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="C43">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0.8</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2108</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L43">
         <v>13</v>
       </c>
-      <c r="D43">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F43">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>222</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="L43">
-        <v>14</v>
-      </c>
       <c r="M43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2824,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2832,213 +2829,141 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02243313201035375</v>
+        <v>0.006624605678233439</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E44">
-        <v>0.07000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F44">
-        <v>0.9299999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1133</v>
+        <v>3149</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L44">
+        <v>48</v>
+      </c>
+      <c r="M44">
+        <v>48</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L45">
+        <v>37</v>
+      </c>
+      <c r="M45">
+        <v>37</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K44">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L44">
-        <v>46</v>
-      </c>
-      <c r="M44">
-        <v>46</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.01547887778136085</v>
-      </c>
-      <c r="C45">
-        <v>48</v>
-      </c>
-      <c r="D45">
-        <v>54</v>
-      </c>
-      <c r="E45">
-        <v>0.11</v>
-      </c>
-      <c r="F45">
-        <v>0.89</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>3053</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K45">
-        <v>0.5098039215686274</v>
-      </c>
-      <c r="L45">
-        <v>26</v>
-      </c>
-      <c r="M45">
-        <v>26</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.01313320825515948</v>
-      </c>
-      <c r="C46">
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>39</v>
-      </c>
-      <c r="E46">
-        <v>0.28</v>
-      </c>
-      <c r="F46">
-        <v>0.72</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>2104</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K46">
+      <c r="K47">
         <v>0.5</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <v>14</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <v>14</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.006624605678233439</v>
-      </c>
-      <c r="C47">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>52</v>
-      </c>
-      <c r="E47">
-        <v>0.6</v>
-      </c>
-      <c r="F47">
-        <v>0.4</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>3149</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L47">
-        <v>19</v>
-      </c>
-      <c r="M47">
-        <v>19</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3050,21 +2975,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.4411764705882353</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3076,21 +3001,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.3835616438356164</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3102,15 +3027,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.3125</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L51">
         <v>20</v>
@@ -3128,15 +3053,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.3076923076923077</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L52">
         <v>24</v>
@@ -3154,21 +3079,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.2982456140350877</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3180,21 +3105,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.288135593220339</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3206,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.2459016393442623</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3232,47 +3157,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1944444444444444</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.1290322580645161</v>
+        <v>0.265625</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3284,21 +3209,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.1081081081081081</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3310,47 +3235,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.09302325581395349</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L59">
         <v>16</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.06168831168831169</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3362,84 +3287,136 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>289</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.02012383900928793</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N61">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>633</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.01459034792368126</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62">
         <v>16</v>
       </c>
       <c r="N62">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>878</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63">
+        <v>0.02018633540372671</v>
+      </c>
+      <c r="L63">
+        <v>13</v>
+      </c>
+      <c r="M63">
+        <v>19</v>
+      </c>
+      <c r="N63">
+        <v>0.68</v>
+      </c>
+      <c r="O63">
+        <v>0.32</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K64">
+        <v>0.01555555555555556</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>0.93</v>
+      </c>
+      <c r="O64">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65">
+        <v>0.009748427672955974</v>
+      </c>
+      <c r="L65">
+        <v>31</v>
+      </c>
+      <c r="M65">
         <v>52</v>
       </c>
-      <c r="K63">
-        <v>0.009748427672955974</v>
-      </c>
-      <c r="L63">
-        <v>31</v>
-      </c>
-      <c r="M63">
-        <v>52</v>
-      </c>
-      <c r="N63">
+      <c r="N65">
         <v>0.6</v>
       </c>
-      <c r="O63">
+      <c r="O65">
         <v>0.4</v>
       </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
         <v>3149</v>
       </c>
     </row>
